--- a/data2.xlsx
+++ b/data2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\WorkSpace\MapMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70451DB5-776F-4729-B224-E54C30197F90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67505E3-D759-486F-BC38-4FD561A4ED72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C295BF6-1FED-4395-8E22-2BAB2BFB6B1E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="627">
   <si>
     <t>Endereço-ID</t>
   </si>
@@ -1840,12 +1840,6 @@
   </si>
   <si>
     <t>LDNW05;</t>
-  </si>
-  <si>
-    <t>-23310361</t>
-  </si>
-  <si>
-    <t>-51165806</t>
   </si>
   <si>
     <t>AVENIDA HIGIENOPOLIS</t>
@@ -1961,6 +1955,7 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
       <color rgb="FF3C4043"/>
       <name val="Arial"/>
@@ -2050,7 +2045,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2087,9 +2082,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2456,7 +2448,7 @@
   <cols>
     <col min="1" max="1" width="15.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="47.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" style="14" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14.85546875" style="6" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" style="6" customWidth="1"/>
@@ -2486,10 +2478,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>8</v>
@@ -2524,7 +2516,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
@@ -2564,7 +2556,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>18</v>
@@ -2604,18 +2596,18 @@
         <v>35</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="16" t="s">
-        <v>622</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>623</v>
+      <c r="H4" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>621</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>15</v>
@@ -2640,22 +2632,22 @@
       <c r="B5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>628</v>
+      <c r="C5" s="16" t="s">
+        <v>626</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="16" t="s">
-        <v>626</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>627</v>
+      <c r="H5" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>625</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>15</v>
@@ -2666,7 +2658,9 @@
       <c r="L5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="N5" s="9" t="s">
         <v>34</v>
       </c>
@@ -2682,7 +2676,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
@@ -2722,7 +2716,7 @@
         <v>52</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -2762,7 +2756,7 @@
         <v>59</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>18</v>
@@ -2802,7 +2796,7 @@
         <v>73</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>18</v>
@@ -2842,7 +2836,7 @@
         <v>77</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>18</v>
@@ -2882,7 +2876,7 @@
         <v>81</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>18</v>
@@ -2922,7 +2916,7 @@
         <v>85</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>18</v>
@@ -2962,7 +2956,7 @@
         <v>89</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>18</v>
@@ -3002,7 +2996,7 @@
         <v>95</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>34</v>
@@ -3040,7 +3034,7 @@
         <v>102</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>11</v>
@@ -3080,7 +3074,7 @@
         <v>109</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -3120,7 +3114,7 @@
         <v>116</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>11</v>
@@ -3160,7 +3154,7 @@
         <v>122</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>18</v>
@@ -3200,7 +3194,7 @@
         <v>132</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>18</v>
@@ -3240,7 +3234,7 @@
         <v>136</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>18</v>
@@ -3280,7 +3274,7 @@
         <v>140</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>18</v>
@@ -3320,7 +3314,7 @@
         <v>174</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>18</v>
@@ -3360,7 +3354,7 @@
         <v>178</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>18</v>
@@ -3400,7 +3394,7 @@
         <v>182</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>18</v>
@@ -3440,7 +3434,7 @@
         <v>186</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>18</v>
@@ -3480,7 +3474,7 @@
         <v>190</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>18</v>
@@ -3520,7 +3514,7 @@
         <v>194</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>18</v>
@@ -3560,7 +3554,7 @@
         <v>198</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>18</v>
@@ -3600,7 +3594,7 @@
         <v>202</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>18</v>
@@ -3640,7 +3634,7 @@
         <v>205</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>18</v>
@@ -3680,7 +3674,7 @@
         <v>208</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>18</v>
@@ -3720,7 +3714,7 @@
         <v>212</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>18</v>
@@ -3760,7 +3754,7 @@
         <v>216</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>18</v>
@@ -3800,7 +3794,7 @@
         <v>220</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>18</v>
@@ -3840,7 +3834,7 @@
         <v>224</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>18</v>
@@ -3880,7 +3874,7 @@
         <v>228</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>18</v>
@@ -3920,7 +3914,7 @@
         <v>238</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>18</v>
@@ -3960,7 +3954,7 @@
         <v>242</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>18</v>
@@ -4000,7 +3994,7 @@
         <v>246</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>18</v>
@@ -4040,7 +4034,7 @@
         <v>260</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>18</v>
@@ -4080,7 +4074,7 @@
         <v>264</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>18</v>
@@ -4120,7 +4114,7 @@
         <v>268</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>18</v>
@@ -4160,7 +4154,7 @@
         <v>272</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>18</v>
@@ -4200,7 +4194,7 @@
         <v>276</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>18</v>
@@ -4240,7 +4234,7 @@
         <v>284</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>11</v>
@@ -4280,7 +4274,7 @@
         <v>291</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>18</v>
@@ -4320,7 +4314,7 @@
         <v>297</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>11</v>
@@ -4360,7 +4354,7 @@
         <v>305</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>18</v>
@@ -4400,7 +4394,7 @@
         <v>312</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>11</v>
@@ -4440,7 +4434,7 @@
         <v>319</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>11</v>
@@ -4480,7 +4474,7 @@
         <v>324</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>18</v>
@@ -4520,7 +4514,7 @@
         <v>330</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>18</v>
@@ -4560,7 +4554,7 @@
         <v>336</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>11</v>
@@ -4600,7 +4594,7 @@
         <v>343</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>18</v>
@@ -4640,7 +4634,7 @@
         <v>349</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>11</v>
@@ -4680,7 +4674,7 @@
         <v>355</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>11</v>
@@ -4720,7 +4714,7 @@
         <v>361</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>18</v>
@@ -4760,7 +4754,7 @@
         <v>367</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>11</v>
@@ -4800,7 +4794,7 @@
         <v>373</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>18</v>
@@ -4840,7 +4834,7 @@
         <v>378</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>18</v>
@@ -4880,7 +4874,7 @@
         <v>383</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>18</v>
@@ -4920,7 +4914,7 @@
         <v>389</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>18</v>
@@ -4960,7 +4954,7 @@
         <v>395</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>18</v>
@@ -5000,7 +4994,7 @@
         <v>401</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>18</v>
@@ -5040,7 +5034,7 @@
         <v>409</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>18</v>
@@ -5080,7 +5074,7 @@
         <v>413</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>18</v>
@@ -5120,7 +5114,7 @@
         <v>419</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>34</v>
@@ -5158,7 +5152,7 @@
         <v>453</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>18</v>
@@ -5198,7 +5192,7 @@
         <v>457</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>18</v>
@@ -5238,7 +5232,7 @@
         <v>461</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>18</v>
@@ -5278,7 +5272,7 @@
         <v>465</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>18</v>
@@ -5318,7 +5312,7 @@
         <v>469</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>18</v>
@@ -5358,7 +5352,7 @@
         <v>473</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>18</v>
@@ -5398,7 +5392,7 @@
         <v>477</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>18</v>
@@ -5438,7 +5432,7 @@
         <v>481</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>18</v>
@@ -5478,7 +5472,7 @@
         <v>485</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>18</v>
@@ -5518,7 +5512,7 @@
         <v>489</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>18</v>
@@ -5558,7 +5552,7 @@
         <v>493</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>18</v>
@@ -5598,7 +5592,7 @@
         <v>497</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>18</v>
@@ -5638,7 +5632,7 @@
         <v>501</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>18</v>
@@ -5678,7 +5672,7 @@
         <v>505</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>18</v>
@@ -5718,7 +5712,7 @@
         <v>509</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>18</v>
@@ -5758,7 +5752,7 @@
         <v>515</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>18</v>
@@ -5798,7 +5792,7 @@
         <v>533</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>18</v>
@@ -5838,7 +5832,7 @@
         <v>537</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>18</v>
@@ -5878,7 +5872,7 @@
         <v>541</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>18</v>
@@ -5918,7 +5912,7 @@
         <v>545</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>18</v>
@@ -5958,7 +5952,7 @@
         <v>549</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>18</v>
@@ -5998,7 +5992,7 @@
         <v>553</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>18</v>
@@ -6038,7 +6032,7 @@
         <v>557</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>18</v>
@@ -6078,7 +6072,7 @@
         <v>562</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>18</v>
@@ -6118,7 +6112,7 @@
         <v>566</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>18</v>
@@ -6158,7 +6152,7 @@
         <v>572</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>11</v>
@@ -6198,7 +6192,7 @@
         <v>579</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>34</v>
@@ -6238,7 +6232,7 @@
         <v>586</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>11</v>
@@ -6278,7 +6272,7 @@
         <v>591</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>34</v>
@@ -6312,22 +6306,22 @@
       <c r="B97" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="C97" s="8" t="e">
-        <v>#N/A</v>
+      <c r="C97" s="8" t="s">
+        <v>591</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
-      <c r="H97" s="16" t="s">
-        <v>624</v>
-      </c>
-      <c r="I97" s="16" t="s">
-        <v>625</v>
+      <c r="H97" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="I97" s="15" t="s">
+        <v>623</v>
       </c>
       <c r="J97" s="7" t="s">
         <v>15</v>
@@ -6336,8 +6330,8 @@
         <v>15</v>
       </c>
       <c r="L97" s="11"/>
-      <c r="M97" s="7" t="e">
-        <v>#N/A</v>
+      <c r="M97" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="N97" s="9" t="s">
         <v>12</v>
@@ -6354,7 +6348,7 @@
         <v>599</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>11</v>
@@ -6391,21 +6385,21 @@
         <v>300</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
-      <c r="H99" s="13" t="s">
-        <v>602</v>
-      </c>
-      <c r="I99" s="13" t="s">
-        <v>603</v>
+      <c r="H99" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>598</v>
       </c>
       <c r="J99" s="7" t="s">
         <v>39</v>
@@ -6416,108 +6410,114 @@
       <c r="L99" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="M99" s="14"/>
+      <c r="M99" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="N99" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="14" t="s">
-        <v>605</v>
-      </c>
-      <c r="B100" s="14" t="s">
+      <c r="A100" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="B100" s="13" t="s">
         <v>300</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
-      <c r="H100" s="14" t="s">
-        <v>607</v>
-      </c>
-      <c r="I100" s="14" t="s">
-        <v>608</v>
+      <c r="H100" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>606</v>
       </c>
       <c r="J100" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K100" s="14" t="s">
+      <c r="K100" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="L100" s="14" t="s">
-        <v>606</v>
-      </c>
-      <c r="M100" s="14"/>
+      <c r="L100" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="M100" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="N100" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="14" t="s">
-        <v>610</v>
-      </c>
-      <c r="B101" s="14" t="s">
+      <c r="A101" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="B101" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
-      <c r="H101" s="14" t="s">
-        <v>611</v>
-      </c>
-      <c r="I101" s="14" t="s">
-        <v>612</v>
+      <c r="H101" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="I101" s="13" t="s">
+        <v>610</v>
       </c>
       <c r="J101" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K101" s="14" t="s">
+      <c r="K101" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L101" s="14"/>
-      <c r="M101" s="14"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="N101" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="14" t="s">
-        <v>614</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>615</v>
+      <c r="A102" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>613</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
-      <c r="H102" s="14" t="s">
-        <v>616</v>
-      </c>
-      <c r="I102" s="14" t="s">
-        <v>617</v>
+      <c r="H102" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="I102" s="13" t="s">
+        <v>615</v>
       </c>
       <c r="J102" s="7" t="s">
         <v>39</v>
@@ -6525,8 +6525,10 @@
       <c r="K102" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L102" s="14"/>
-      <c r="M102" s="14"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="N102" s="9" t="s">
         <v>12</v>
       </c>
